--- a/biology/Botanique/Homalium/Homalium.xlsx
+++ b/biology/Botanique/Homalium/Homalium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homalium est un genre de plantes à fleurs de la famille des Salicaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (1 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (1 août 2018) :
 Homalium abdessammadii Asch. &amp; Schweinf.
 Homalium acuminatum Cheeseman
 Homalium acutissimum Gilg
@@ -669,7 +683,7 @@
 Homalium viridiflorum Exell
 Homalium vitiense Benth.
 Homalium whitmeeanum H.St.John
-Selon Catalogue of Life                                   (1 août 2018)[3] :
+Selon Catalogue of Life                                   (1 août 2018) :
 Homalium abdessammadii Aschers. &amp; Schweinf
 Homalium acuminatum Cheesem.
 Homalium acutissimum Gilg
@@ -823,11 +837,11 @@
 Homalium viridiflorum Exell
 Homalium vitiense Benth.
 Homalium whitmeeanum H. St. John
-Selon GRIN            (1 août 2018)[4] :
+Selon GRIN            (1 août 2018) :
 Homalium letestui Pellegr.
-Selon ITIS      (1 août 2018)[5] :
+Selon ITIS      (1 août 2018) :
 Homalium racemosum Jacq.
-Selon The Plant List            (1 août 2018)[6] :
+Selon The Plant List            (1 août 2018) :
 Homalium abdessammadii Asch. &amp; Schweinf.
 Homalium africanum (Hook.f.) Benth.
 Homalium albiflorum (Boivin &amp; Tul.) O. Hoffm.
